--- a/protein infer test set generated by me/protein inference - P_xi and P_xi_given_zj test value generator.xlsx
+++ b/protein infer test set generated by me/protein inference - P_xi and P_xi_given_zj test value generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Google Drive\professional stuff\Master\Semester 4 - UT Austin\3 - Internship AK Marcotte\2 - fluorosequencing\2 - test sets\protein infer test set generated by me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336278B4-1535-4C42-AF08-4C6D2D02786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A23BCC-F65F-4A5A-A3C9-3EF603CCE135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="1" xr2:uid="{782E8B73-45DE-41A4-BC72-CCEC145D0379}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Proteins</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>green fields: choose target value (Protein distribution)</t>
-  </si>
-  <si>
-    <t>what I thought was P(Zj|Xi) but actually isnt</t>
   </si>
   <si>
     <t>these are the uncorrected results we get -&gt;</t>
@@ -189,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -202,11 +199,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,23 +929,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2DE866-58F5-40FA-A7D3-04D5684935D2}">
-  <dimension ref="B1:T20"/>
+  <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="46.33203125" style="3" customWidth="1"/>
-    <col min="3" max="11" width="8.88671875" style="3"/>
+    <col min="3" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="12.5546875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="3"/>
     <col min="17" max="17" width="8.88671875" style="3"/>
     <col min="18" max="18" width="43.109375" style="3" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
@@ -959,21 +957,17 @@
       <c r="D1" s="11"/>
       <c r="E1" s="7"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -989,23 +983,15 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1022,38 +1008,24 @@
         <f>SUM(C3:E3)</f>
         <v>10</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <f>C3/$F3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <f>D3/$F3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
-        <f>E3/$F3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="I3" s="9">
         <f>C3/C$10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N3" s="9">
-        <f t="shared" ref="N3:O9" si="0">D3/D$10</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="J3" s="9">
+        <f>D3/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <f>E3/E$10</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1067,38 +1039,24 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F9" si="1">SUM(C4:E4)</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" ref="I4:J9" si="2">C4/$F4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <f t="shared" ref="K4:K9" si="3">E4/$F4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
+        <f t="shared" ref="F4:F9" si="0">SUM(C4:E4)</f>
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
         <f>C4/C$10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J4" s="9">
+        <f>D4/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <f>E4/E$10</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1112,38 +1070,24 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
         <f>C5/C$10</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J5" s="9">
+        <f>D5/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f>E5/E$10</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1157,38 +1101,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" ref="M6:M8" si="4">C6/C$10</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <f>C6/C$10</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <f>D6/D$10</f>
         <v>0.5</v>
       </c>
-      <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K6" s="9">
+        <f>E6/E$10</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1202,38 +1132,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <f>C7/C$10</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <f>D7/D$10</f>
         <v>0.5</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K7" s="9">
+        <f>E7/E$10</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1247,38 +1163,24 @@
         <v>10</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I8" s="9">
+        <f>C8/C$10</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <f>D8/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f>E8/E$10</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1292,52 +1194,38 @@
         <v>10</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
         <f>C9/C$10</f>
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="0"/>
+      <c r="J9" s="9">
+        <f>D9/D$10</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <f>E9/E$10</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <f>SUM(C3:C9)</f>
         <v>30</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:E10" si="5">SUM(D3:D9)</f>
+        <f t="shared" ref="D10:E10" si="1">SUM(D3:D9)</f>
         <v>20</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>0</v>
       </c>
@@ -1422,16 +1310,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:C20" si="6">C4*$I$14+D4*$J$14+E4*$K$14</f>
+        <f t="shared" ref="C15:C20" si="2">C4*$I$14+D4*$J$14+E4*$K$14</f>
         <v>6</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:D20" si="7">C15/SUM($C$14:$C$20)</f>
+        <f t="shared" ref="D15:D20" si="3">C15/SUM($C$14:$C$20)</f>
         <v>0.23076923076923078</v>
       </c>
       <c r="E15" s="8"/>
@@ -1454,32 +1342,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>2</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="E16" s="8"/>
       <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="12">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10">
         <f>I15/SUM($I$15:$K$15)</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="J16" s="12">
-        <f t="shared" ref="J16:K16" si="8">J15/SUM($I$15:$K$15)</f>
+      <c r="J16" s="10">
+        <f t="shared" ref="J16:K16" si="4">J15/SUM($I$15:$K$15)</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="K16" s="12">
-        <f t="shared" si="8"/>
+      <c r="K16" s="10">
+        <f t="shared" si="4"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -1491,11 +1379,11 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E17" s="8"/>
@@ -1504,11 +1392,11 @@
         <v>2.3076923076923075E-2</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:K17" si="9">J16/D10</f>
+        <f t="shared" ref="J17:K17" si="5">J16/D10</f>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7.6923076923076927E-3</v>
       </c>
       <c r="M17" cm="1">
@@ -1529,11 +1417,11 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E18" s="8"/>
@@ -1542,11 +1430,11 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18:K18" si="10">J17/SUM($I$17:$K$17)</f>
+        <f t="shared" ref="J18:K18" si="6">J17/SUM($I$17:$K$17)</f>
         <v>0.2</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
       <c r="M18">
@@ -1554,11 +1442,11 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" ref="N18:O18" si="11">N17/SUM($M$17:$O$17)</f>
+        <f t="shared" ref="N18:O18" si="7">N17/SUM($M$17:$O$17)</f>
         <v>0.2</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1567,11 +1455,11 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E19" s="8"/>
@@ -1581,19 +1469,18 @@
         <v>6</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="E20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
